--- a/Camaras trampa/Tablas CT metodologia UCT FINAL FINAL FINAL.xlsx
+++ b/Camaras trampa/Tablas CT metodologia UCT FINAL FINAL FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa631587986ce8df/Documentos/VS Code/Python/Camaras trampa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F19B24A0D44CF9085249B3A18FFE4D9F6C5C8014" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D234966-C9EE-422E-84D9-944F46D68EBE}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F19B24A0D44CF9085249B3A18FFE4D9F6C5C8014" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA48C3D5-3B27-4FB9-A3E3-B8D037B8588B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Especie_count" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -248,18 +248,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,6 +278,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,13 +577,13 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="3" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -602,7 +605,7 @@
         <v>27.1461716937355</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -613,7 +616,7 @@
         <v>11.94895591647332</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -624,7 +627,7 @@
         <v>11.48491879350348</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -635,7 +638,7 @@
         <v>11.36890951276102</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -646,7 +649,7 @@
         <v>11.36890951276102</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -657,7 +660,7 @@
         <v>8.468677494199536</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -668,7 +671,7 @@
         <v>3.9443155452436192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -679,7 +682,7 @@
         <v>2.9002320185614852</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -690,7 +693,7 @@
         <v>2.6682134570765661</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -701,7 +704,7 @@
         <v>1.97215777262181</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -712,7 +715,7 @@
         <v>1.392111368909513</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -723,7 +726,7 @@
         <v>0.58004640371229699</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -734,7 +737,7 @@
         <v>0.58004640371229699</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -745,7 +748,7 @@
         <v>0.46403712296983762</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -759,7 +762,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -773,7 +776,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -787,7 +790,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -798,7 +801,7 @@
         <v>0.34802784222737809</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -809,7 +812,7 @@
         <v>0.34802784222737809</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -820,7 +823,7 @@
         <v>0.23201856148491881</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -831,7 +834,7 @@
         <v>0.23201856148491881</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -842,7 +845,7 @@
         <v>0.23201856148491881</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -853,7 +856,7 @@
         <v>0.23201856148491881</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -864,7 +867,7 @@
         <v>0.23201856148491881</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -875,7 +878,7 @@
         <v>0.23201856148491881</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -886,7 +889,7 @@
         <v>0.23201856148491881</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -897,7 +900,7 @@
         <v>0.11600928074245941</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -920,18 +923,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:K17"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="17.44140625" customWidth="1"/>
+    <col min="2" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
@@ -995,7 +998,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1027,18 +1030,18 @@
         <v>12.286689419795222</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>26.27986348122867</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>20.25028441410694</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>17.519908987485778</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>15.130830489192263</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>12.286689419795222</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>6.257110352673493</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>1.9340159271899886</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>0.22753128555176336</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1136,9 +1139,6 @@
       <c r="D16" s="4">
         <v>0.11376564277588168</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="B7:D7" xr:uid="{00000000-0001-0000-0100-000000000000}">
@@ -1156,9 +1156,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1919,20 +1919,24 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>42</v>
@@ -1941,7 +1945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1989,10 +1993,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2001,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2029,10 +2033,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>39</v>
@@ -2041,7 +2045,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2061,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2069,10 +2073,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2081,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2089,10 +2093,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2101,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2129,10 +2133,10 @@
         <v>12</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>13</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2141,7 +2145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2149,10 +2153,10 @@
         <v>13</v>
       </c>
       <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>3</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
       </c>
       <c r="E12">
         <v>29</v>
@@ -2161,7 +2165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2169,10 +2173,10 @@
         <v>14</v>
       </c>
       <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
         <v>29</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -2181,7 +2185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2209,10 +2213,10 @@
         <v>16</v>
       </c>
       <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
         <v>19</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
       </c>
       <c r="E15">
         <v>22</v>
@@ -2221,7 +2225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2229,10 +2233,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2241,7 +2245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2249,10 +2253,10 @@
         <v>18</v>
       </c>
       <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
         <v>30</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
       </c>
       <c r="E17">
         <v>34</v>
@@ -2261,7 +2265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2281,7 +2285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2309,10 +2313,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -2321,7 +2325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2341,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2349,10 +2353,10 @@
         <v>23</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>3</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -2361,7 +2365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2369,10 +2373,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2381,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2401,7 +2405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2449,10 +2453,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2461,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2469,10 +2473,10 @@
         <v>29</v>
       </c>
       <c r="C28">
+        <v>62</v>
+      </c>
+      <c r="D28">
         <v>37</v>
-      </c>
-      <c r="D28">
-        <v>62</v>
       </c>
       <c r="E28">
         <v>22</v>
@@ -2481,7 +2485,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2489,10 +2493,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>15</v>
@@ -2512,9 +2516,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2599,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2643,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2687,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2731,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2819,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2863,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2907,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2995,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3083,7 +3087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3127,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3171,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3391,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3479,7 +3483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3523,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3567,7 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3611,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3743,7 +3747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3800,14 +3804,14 @@
       <selection activeCell="B1" sqref="B1:K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3839,7 +3843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3874,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3944,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4014,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4084,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>0.92592592592592582</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4154,7 +4158,7 @@
         <v>0.92592592592592582</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>1.8518518518518521</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4224,7 +4228,7 @@
         <v>0.92592592592592582</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>39.814814814814817</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4294,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>3.7037037037037028</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4399,7 +4403,7 @@
         <v>20.37037037037037</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4434,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>1.8518518518518521</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4574,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4644,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4714,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4749,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4784,7 +4788,7 @@
         <v>26.851851851851851</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4832,13 +4836,13 @@
       <selection activeCell="C30" sqref="C30:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4873,11 +4877,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
@@ -4911,11 +4915,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
@@ -4940,11 +4944,11 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
@@ -4969,11 +4973,11 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
@@ -4998,11 +5002,11 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
@@ -5024,11 +5028,11 @@
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -5050,11 +5054,11 @@
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
@@ -5076,11 +5080,11 @@
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
@@ -5102,11 +5106,11 @@
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
@@ -5125,11 +5129,11 @@
         <v>44.444444444444443</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
@@ -5145,11 +5149,11 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E12" t="s">
@@ -5165,11 +5169,11 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
@@ -5185,11 +5189,11 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
@@ -5205,11 +5209,11 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I15" t="s">
@@ -5222,11 +5226,11 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I16" t="s">
@@ -5239,11 +5243,11 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
@@ -5256,11 +5260,11 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
@@ -5273,11 +5277,11 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
@@ -5290,11 +5294,11 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D20" t="s">
@@ -5307,11 +5311,11 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I21" t="s">
@@ -5321,11 +5325,11 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I22" t="s">
@@ -5335,11 +5339,11 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -5349,11 +5353,11 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" t="s">
@@ -5363,11 +5367,11 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J25" t="s">
@@ -5377,11 +5381,11 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D26" t="s">
@@ -5391,11 +5395,11 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J27" t="s">
@@ -5405,11 +5409,11 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E28" t="s">
@@ -5419,11 +5423,11 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I29" t="s">
@@ -5433,8 +5437,8 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C30">
@@ -5481,9 +5485,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5791,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -5945,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -6022,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6099,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -6176,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -6330,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6407,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -6484,7 +6488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -6561,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -6638,7 +6642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -6715,7 +6719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -7023,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -7177,7 +7181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -7254,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -7408,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -7562,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -7639,7 +7643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
